--- a/xlsx/管理_intext.xlsx
+++ b/xlsx/管理_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="637">
   <si>
     <t>管理</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>開會</t>
+    <t>开会</t>
   </si>
   <si>
     <t>政策_政策_管理</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>創新</t>
+    <t>创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>組織</t>
+    <t>组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%BA%90</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>中產階級</t>
+    <t>中产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%98%B6%E7%BA%A7</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>商學院</t>
+    <t>商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E4%BA%BA</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>代議民主制</t>
+    <t>代议民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B0%E7%9B%B8</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%BE%8E%E4%BA%BA</t>
   </si>
   <si>
-    <t>蘇美人</t>
+    <t>苏美人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%95%B8%E5%AD%97</t>
   </si>
   <si>
-    <t>阿拉伯數字</t>
+    <t>阿拉伯数字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E5%BC%8F%E8%AE%B0%E5%B8%90%E6%B3%95</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E8%A5%BF%E4%BA%94%E7%B6%93</t>
   </si>
   <si>
-    <t>摩西五經</t>
+    <t>摩西五经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E6%9C%AC%E6%9C%83%E8%A8%88</t>
   </si>
   <si>
-    <t>成本會計</t>
+    <t>成本会计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AF%8C%E8%AE%BA</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E4%BF%9D%E8%AD%89</t>
   </si>
   <si>
-    <t>品質保證</t>
+    <t>品质保证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E5%AD%A6%E9%99%A2</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%90%E5%88%B6%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>限制理論</t>
+    <t>限制理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A0%87%E7%AE%A1%E7%90%86</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E6%A8%99%E6%BA%96%E5%B7%AE</t>
   </si>
   <si>
-    <t>六標準差</t>
+    <t>六标准差</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%8A%80%E6%9C%AF</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%89%9F%E5%88%A9%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>非牟利機構</t>
+    <t>非牟利机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%AE%A1%E7%90%86</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>人格障礙</t>
+    <t>人格障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%89%A7%E8%A1%8C%E8%91%A3%E4%BA%8B</t>
@@ -671,19 +671,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>彼得原則</t>
+    <t>彼得原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E8%AE%8A%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>權變理論</t>
+    <t>权变理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/X%E5%92%8CY%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>X和Y理論</t>
+    <t>X和Y理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E6%96%B9%E6%B3%95</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BF%AE%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>維修管理</t>
+    <t>维修管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A8%E9%87%8F%E7%AE%A1%E7%90%86</t>
@@ -755,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>知識管理</t>
+    <t>知识管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E7%AE%A1%E7%90%86</t>
@@ -833,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%A1%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>專案管理</t>
+    <t>专案管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E9%97%B4%E7%AE%A1%E7%90%86</t>
@@ -869,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E8%A8%88%E9%87%8F%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學計量學</t>
+    <t>科学计量学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E6%9D%A5%E5%AD%A6</t>
@@ -977,9 +977,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Capability_management</t>
   </si>
   <si>
@@ -989,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -1007,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Systems_management</t>
@@ -1037,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -1067,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -1139,13 +1136,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -1157,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E7%AE%A1%E7%90%86</t>
@@ -1169,15 +1166,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>知识管理</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
@@ -1211,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -1223,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -1259,25 +1253,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Team_building</t>
@@ -1295,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -1313,7 +1304,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E9%9B%85%E8%83%A1%C2%B7%E9%AB%98%E5%BE%B7%E6%8B%89%E7%89%B9</t>
@@ -1331,21 +1322,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
-    <t>商学院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
   </si>
   <si>
@@ -1385,13 +1370,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
@@ -1664,7 +1649,7 @@
     <t>https://ja.wikipedia.org/wiki/%E7%B5%8C%E5%96%B6%E7%AE%A1%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>経営管理論 – 日语</t>
+    <t>経営管理论 – 日语</t>
   </si>
   <si>
     <t>https://ka.wikipedia.org/wiki/%E1%83%9B%E1%83%94%E1%83%9C%E1%83%94%E1%83%AF%E1%83%9B%E1%83%94%E1%83%9C%E1%83%A2%E1%83%98</t>
@@ -6951,7 +6936,7 @@
         <v>319</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>178</v>
       </c>
       <c r="G161" t="n">
         <v>8</v>
@@ -7006,10 +6991,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>320</v>
+      </c>
+      <c r="F163" t="s">
         <v>321</v>
-      </c>
-      <c r="F163" t="s">
-        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7035,10 +7020,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" t="s">
         <v>323</v>
-      </c>
-      <c r="F164" t="s">
-        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7064,10 +7049,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
         <v>325</v>
-      </c>
-      <c r="F165" t="s">
-        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7122,10 +7107,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" t="s">
         <v>327</v>
-      </c>
-      <c r="F167" t="s">
-        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7151,10 +7136,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7209,10 +7194,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>330</v>
+      </c>
+      <c r="F170" t="s">
         <v>331</v>
-      </c>
-      <c r="F170" t="s">
-        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7267,10 +7252,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>332</v>
+      </c>
+      <c r="F172" t="s">
         <v>333</v>
-      </c>
-      <c r="F172" t="s">
-        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7296,10 +7281,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>334</v>
+      </c>
+      <c r="F173" t="s">
         <v>335</v>
-      </c>
-      <c r="F173" t="s">
-        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7354,10 +7339,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>336</v>
+      </c>
+      <c r="F175" t="s">
         <v>337</v>
-      </c>
-      <c r="F175" t="s">
-        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7412,10 +7397,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>338</v>
+      </c>
+      <c r="F177" t="s">
         <v>339</v>
-      </c>
-      <c r="F177" t="s">
-        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7441,10 +7426,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>340</v>
+      </c>
+      <c r="F178" t="s">
         <v>341</v>
-      </c>
-      <c r="F178" t="s">
-        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7499,10 +7484,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>342</v>
+      </c>
+      <c r="F180" t="s">
         <v>343</v>
-      </c>
-      <c r="F180" t="s">
-        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7528,10 +7513,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>344</v>
+      </c>
+      <c r="F181" t="s">
         <v>345</v>
-      </c>
-      <c r="F181" t="s">
-        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7557,10 +7542,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>346</v>
+      </c>
+      <c r="F182" t="s">
         <v>347</v>
-      </c>
-      <c r="F182" t="s">
-        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7586,10 +7571,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>348</v>
+      </c>
+      <c r="F183" t="s">
         <v>349</v>
-      </c>
-      <c r="F183" t="s">
-        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7615,10 +7600,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>350</v>
+      </c>
+      <c r="F184" t="s">
         <v>351</v>
-      </c>
-      <c r="F184" t="s">
-        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7644,10 +7629,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>352</v>
+      </c>
+      <c r="F185" t="s">
         <v>353</v>
-      </c>
-      <c r="F185" t="s">
-        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7673,10 +7658,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>354</v>
+      </c>
+      <c r="F186" t="s">
         <v>355</v>
-      </c>
-      <c r="F186" t="s">
-        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7702,10 +7687,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>356</v>
+      </c>
+      <c r="F187" t="s">
         <v>357</v>
-      </c>
-      <c r="F187" t="s">
-        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7731,10 +7716,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>358</v>
+      </c>
+      <c r="F188" t="s">
         <v>359</v>
-      </c>
-      <c r="F188" t="s">
-        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7760,10 +7745,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>360</v>
+      </c>
+      <c r="F189" t="s">
         <v>361</v>
-      </c>
-      <c r="F189" t="s">
-        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7789,10 +7774,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>362</v>
+      </c>
+      <c r="F190" t="s">
         <v>363</v>
-      </c>
-      <c r="F190" t="s">
-        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>5</v>
@@ -7818,10 +7803,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>364</v>
+      </c>
+      <c r="F191" t="s">
         <v>365</v>
-      </c>
-      <c r="F191" t="s">
-        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7847,10 +7832,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>366</v>
+      </c>
+      <c r="F192" t="s">
         <v>367</v>
-      </c>
-      <c r="F192" t="s">
-        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7876,10 +7861,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>368</v>
+      </c>
+      <c r="F193" t="s">
         <v>369</v>
-      </c>
-      <c r="F193" t="s">
-        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7905,10 +7890,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>370</v>
+      </c>
+      <c r="F194" t="s">
         <v>371</v>
-      </c>
-      <c r="F194" t="s">
-        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7934,10 +7919,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>372</v>
+      </c>
+      <c r="F195" t="s">
         <v>373</v>
-      </c>
-      <c r="F195" t="s">
-        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7963,10 +7948,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>374</v>
+      </c>
+      <c r="F196" t="s">
         <v>375</v>
-      </c>
-      <c r="F196" t="s">
-        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7992,10 +7977,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>376</v>
+      </c>
+      <c r="F197" t="s">
         <v>377</v>
-      </c>
-      <c r="F197" t="s">
-        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8021,10 +8006,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>378</v>
+      </c>
+      <c r="F198" t="s">
         <v>379</v>
-      </c>
-      <c r="F198" t="s">
-        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8079,10 +8064,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>380</v>
+      </c>
+      <c r="F200" t="s">
         <v>381</v>
-      </c>
-      <c r="F200" t="s">
-        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8108,10 +8093,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>382</v>
+      </c>
+      <c r="F201" t="s">
         <v>383</v>
-      </c>
-      <c r="F201" t="s">
-        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8137,10 +8122,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>246</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -8166,10 +8151,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8195,10 +8180,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8224,10 +8209,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8253,10 +8238,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8282,10 +8267,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8340,10 +8325,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8369,10 +8354,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8398,10 +8383,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G211" t="n">
         <v>4</v>
@@ -8427,10 +8412,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8456,10 +8441,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8485,10 +8470,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8514,10 +8499,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8543,10 +8528,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8572,10 +8557,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>156</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8601,10 +8586,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8630,10 +8615,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8659,10 +8644,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8746,10 +8731,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F223" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8775,10 +8760,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F224" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8804,10 +8789,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F225" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8833,10 +8818,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F226" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G226" t="n">
         <v>13</v>
@@ -8862,10 +8847,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F227" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8891,10 +8876,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F228" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8920,10 +8905,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F229" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8949,10 +8934,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F230" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8978,10 +8963,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F231" t="s">
-        <v>438</v>
+        <v>56</v>
       </c>
       <c r="G231" t="n">
         <v>3</v>
@@ -9007,10 +8992,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F232" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9036,10 +9021,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F233" t="s">
-        <v>442</v>
+        <v>138</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9065,10 +9050,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F234" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9094,10 +9079,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F235" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9123,10 +9108,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F236" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9152,10 +9137,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F237" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9181,10 +9166,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F238" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9239,10 +9224,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F240" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9297,10 +9282,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F242" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9326,10 +9311,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F243" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9355,10 +9340,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F244" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9384,10 +9369,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F245" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9413,10 +9398,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F246" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9442,10 +9427,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F247" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9471,10 +9456,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F248" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9500,10 +9485,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F249" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9529,10 +9514,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F250" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9558,10 +9543,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F251" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9587,10 +9572,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F252" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9616,10 +9601,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F253" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9645,10 +9630,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F254" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9674,10 +9659,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F255" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G255" t="n">
         <v>3</v>
@@ -9703,10 +9688,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F256" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9732,10 +9717,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F257" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9761,10 +9746,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F258" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9790,10 +9775,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F259" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9819,10 +9804,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F260" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9848,10 +9833,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F261" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9877,10 +9862,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F262" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -9906,10 +9891,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F263" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9935,10 +9920,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F264" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9964,10 +9949,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F265" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9993,10 +9978,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F266" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10022,10 +10007,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F267" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10051,10 +10036,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F268" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10080,10 +10065,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F269" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10109,10 +10094,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F270" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10138,10 +10123,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F271" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10167,10 +10152,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F272" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10196,10 +10181,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F273" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10225,10 +10210,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F274" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10254,10 +10239,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F275" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10283,10 +10268,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F276" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10312,10 +10297,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F277" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10341,10 +10326,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F278" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10370,10 +10355,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F279" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10399,10 +10384,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F280" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10428,10 +10413,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F281" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10457,10 +10442,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F282" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10486,10 +10471,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F283" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10515,10 +10500,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F284" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10544,10 +10529,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F285" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10573,10 +10558,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F286" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10602,10 +10587,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F287" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10631,10 +10616,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F288" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10660,10 +10645,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F289" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10689,10 +10674,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F290" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10718,10 +10703,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F291" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10747,10 +10732,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F292" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10776,10 +10761,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F293" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10805,10 +10790,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F294" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10834,10 +10819,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F295" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10863,10 +10848,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F296" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10892,10 +10877,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F297" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10921,10 +10906,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F298" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10950,10 +10935,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F299" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10979,10 +10964,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F300" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11008,10 +10993,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F301" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11037,10 +11022,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="F302" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11066,10 +11051,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F303" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11095,10 +11080,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F304" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11124,10 +11109,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F305" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11153,10 +11138,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F306" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11182,10 +11167,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F307" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11211,10 +11196,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F308" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11240,10 +11225,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F309" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11269,10 +11254,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F310" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11298,10 +11283,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F311" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11327,10 +11312,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F312" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11356,10 +11341,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F313" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11385,10 +11370,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F314" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11414,10 +11399,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F315" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11443,10 +11428,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="F316" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11472,10 +11457,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F317" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11501,10 +11486,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F318" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11530,10 +11515,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="F319" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11559,10 +11544,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F320" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11588,10 +11573,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F321" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11617,10 +11602,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F322" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11646,10 +11631,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F323" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11675,10 +11660,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F324" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11704,10 +11689,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F325" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11733,10 +11718,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F326" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11762,10 +11747,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F327" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11791,10 +11776,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F328" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11820,10 +11805,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F329" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11849,10 +11834,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F330" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11878,10 +11863,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F331" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11907,10 +11892,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F332" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11936,10 +11921,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F333" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -11965,10 +11950,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F334" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -11994,10 +11979,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F335" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
